--- a/Spine_Projects/01_input_data/01_input_raw/methanol/variable_efficiency.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/variable_efficiency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E25F1DF-6010-4BCD-8984-B89AB0F447D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7E25F1DF-6010-4BCD-8984-B89AB0F447D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{099E542F-2860-408A-8976-245006A32973}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6F728511-B5BA-484C-BEF6-08D3CC388B55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F728511-B5BA-484C-BEF6-08D3CC388B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable_Eff" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,6 +443,7 @@
     <col min="1" max="1" width="17.81640625" customWidth="1"/>
     <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -502,7 +503,8 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.66700000000000004</v>
+        <f>1/0.75</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="C6">
         <v>0.4</v>
@@ -513,7 +515,8 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <f>1/0.7</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -524,7 +527,8 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <f>1/0.667</f>
+        <v>1.4992503748125936</v>
       </c>
       <c r="C8">
         <v>1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/variable_efficiency.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/variable_efficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7E25F1DF-6010-4BCD-8984-B89AB0F447D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{099E542F-2860-408A-8976-245006A32973}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7E25F1DF-6010-4BCD-8984-B89AB0F447D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{906BAD32-BA62-4E72-873D-73039C6E64C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F728511-B5BA-484C-BEF6-08D3CC388B55}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>relationship_class:</t>
   </si>
   <si>
-    <t>unit__node__node</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -62,13 +59,16 @@
     <t>parameter name</t>
   </si>
   <si>
-    <t>unit_incremental_heat_rate</t>
-  </si>
-  <si>
     <t>operating_points</t>
   </si>
   <si>
     <t>unit__from_node</t>
+  </si>
+  <si>
+    <t>unit_flow_coefficient</t>
+  </si>
+  <si>
+    <t>unit__from_node__user_constraint</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,51 +451,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -503,8 +503,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <f>1/0.75</f>
-        <v>1.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
         <v>0.4</v>
@@ -515,8 +514,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f>1/0.7</f>
-        <v>1.4285714285714286</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -527,8 +525,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <f>1/0.667</f>
-        <v>1.4992503748125936</v>
+        <v>0.65</v>
       </c>
       <c r="C8">
         <v>1</v>

--- a/Spine_Projects/01_input_data/01_input_raw/methanol/variable_efficiency.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/methanol/variable_efficiency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/methanol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7E25F1DF-6010-4BCD-8984-B89AB0F447D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{906BAD32-BA62-4E72-873D-73039C6E64C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D978C68C-972A-49BF-AEE1-6FF5CF041F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6F728511-B5BA-484C-BEF6-08D3CC388B55}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F728511-B5BA-484C-BEF6-08D3CC388B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable_Eff" sheetId="1" r:id="rId1"/>
@@ -432,10 +432,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.65983699477611935</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.13077384523095381</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -514,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.6578833107588411</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>0.22735452909418116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -525,9 +525,86 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.65</v>
+        <v>0.65100831550467586</v>
       </c>
       <c r="C8">
+        <v>0.32393521295740851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0.64085424326136353</v>
+      </c>
+      <c r="C9">
+        <v>0.42051589682063584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0.63298113441377046</v>
+      </c>
+      <c r="C10">
+        <v>0.51709658068386322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0.62107385131578929</v>
+      </c>
+      <c r="C11">
+        <v>0.6136772645470906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0.6119388</v>
+      </c>
+      <c r="C12">
+        <v>0.71025794841031797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.60260639999999988</v>
+      </c>
+      <c r="C13">
+        <v>0.80683863227354535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.5946072</v>
+      </c>
+      <c r="C14">
+        <v>0.90341931613677273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>0.58701176275167799</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
     </row>
